--- a/【教職員】回答（2025年度）.xlsx
+++ b/【教職員】回答（2025年度）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\ふれあいホリデー\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F2D457-767C-4B89-946B-C8C236D3693F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8826B6D-25D6-42B2-B551-499271280231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -731,10 +731,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -763,6 +764,12 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -797,10 +804,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -815,8 +825,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -7206,12 +7218,12 @@
   <dimension ref="D3:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="3.42578125" customWidth="1"/>
+    <col min="1" max="3" width="2.42578125" customWidth="1"/>
     <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
@@ -7252,7 +7264,7 @@
       <c r="F7" s="7">
         <v>328</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>0.89863013698630134</v>
       </c>
     </row>
@@ -7266,7 +7278,7 @@
       <c r="F8" s="7">
         <v>37</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>0.1013698630136986</v>
       </c>
     </row>
@@ -7309,7 +7321,7 @@
       <c r="F13" s="7">
         <v>217</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="8">
         <v>0.66158536585365857</v>
       </c>
     </row>
@@ -7323,7 +7335,7 @@
       <c r="F14" s="7">
         <v>74</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="8">
         <v>0.22560975609756101</v>
       </c>
     </row>
@@ -7337,7 +7349,7 @@
       <c r="F15" s="7">
         <v>9</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="8">
         <v>2.7439024390243899E-2</v>
       </c>
     </row>
@@ -7351,7 +7363,7 @@
       <c r="F16" s="7">
         <v>0</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="8">
         <v>0</v>
       </c>
     </row>
@@ -7363,7 +7375,7 @@
       <c r="F17" s="7">
         <v>28</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="8">
         <v>8.5365853658536592E-2</v>
       </c>
     </row>
@@ -7380,5 +7392,6 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>